--- a/app/temp.xlsx
+++ b/app/temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cansin\Desktop\maillistshield-file-processor\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEDA833-FD8C-4E57-90F1-C614AEDBDB4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCE605E-8237-4089-A677-A0B10DE2F8F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25000" yWindow="5880" windowWidth="21900" windowHeight="8790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>boo</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>a</t>
+  </si>
+  <si>
+    <t>sdf</t>
+  </si>
+  <si>
+    <t>asdf</t>
   </si>
 </sst>
 </file>
@@ -354,30 +360,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
